--- a/biology/Médecine/Paul_Girard_(médecin)/Paul_Girard_(médecin).xlsx
+++ b/biology/Médecine/Paul_Girard_(médecin)/Paul_Girard_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Paul_Girard_(m%C3%A9decin)</t>
+          <t>Paul_Girard_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul François Girard, né le 27 décembre 1905 à L'Arbresle et mort le 16 avril 1989 à Lyon, est un neurologue, psychiatre universitaire et historien de la médecine français ayant enseigné à l'université Claude Bernard-Lyon I.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Paul_Girard_(m%C3%A9decin)</t>
+          <t>Paul_Girard_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,13 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et formation
-Interne des hôpitaux de Lyon en 1927, il a pour maîtres Jean Lépine (1876-1967) en psychiatrie (dont il devient chef de clinique), J. F.Martin en neuropathologie ainsi que Jules Froment (1878-1946), Louis Bériel (1878-1965) et Jean Dechaume (1896-1968) dans le domaine de la clinique neurologique. Il s'intéresse aussi à l'histoire de la médecine auprès de Maurice Péhu (1874-1945[1].
-Carrière hospitalo-universitaire
-Il est agrégé de neurologie en 1946, année à partir de laquelle il dirige le service de neurologie de l'hôpital de l'Antiquaille de Lyon. En 1965, il exerce et enseigne à l'hôpital neurologique et à l'hôpital psychiatrique du Vinatier.
-Il est aussi professeur de médecine expérimentale, membre de l'Académie des sciences, belles-lettres et arts de Lyon de 1979 jusqu'à sa mort[2], en 1989 et président de la Société française de neurologie en 1976.
-Dernières années
-Il meurt à l’âge de 83 ans, à son domicile, dans le 2e arrondissement de Lyon[3].
+          <t>Jeunesse et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Interne des hôpitaux de Lyon en 1927, il a pour maîtres Jean Lépine (1876-1967) en psychiatrie (dont il devient chef de clinique), J. F.Martin en neuropathologie ainsi que Jules Froment (1878-1946), Louis Bériel (1878-1965) et Jean Dechaume (1896-1968) dans le domaine de la clinique neurologique. Il s'intéresse aussi à l'histoire de la médecine auprès de Maurice Péhu (1874-1945.
 </t>
         </is>
       </c>
@@ -530,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Paul_Girard_(m%C3%A9decin)</t>
+          <t>Paul_Girard_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +557,87 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière hospitalo-universitaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est agrégé de neurologie en 1946, année à partir de laquelle il dirige le service de neurologie de l'hôpital de l'Antiquaille de Lyon. En 1965, il exerce et enseigne à l'hôpital neurologique et à l'hôpital psychiatrique du Vinatier.
+Il est aussi professeur de médecine expérimentale, membre de l'Académie des sciences, belles-lettres et arts de Lyon de 1979 jusqu'à sa mort, en 1989 et président de la Société française de neurologie en 1976.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Paul_Girard_(médecin)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Girard_(m%C3%A9decin)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Dernières années</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il meurt à l’âge de 83 ans, à son domicile, dans le 2e arrondissement de Lyon.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Paul_Girard_(médecin)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Girard_(m%C3%A9decin)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Médecine expérimentale, 1967
 Psychiatrie de l'enfant et de l'adolescent , 1975
